--- a/data/trans_bre/P20_3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P20_3_R-Urba-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,82</t>
+          <t>10,83</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>6,37</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>53,51%</t>
+          <t>53,84%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>32,93%</t>
+          <t>31,89%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,02; 15,41</t>
+          <t>6,18; 15,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 11,7</t>
+          <t>0,8; 11,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,33; 85,91</t>
+          <t>25,88; 89,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,06; 69,82</t>
+          <t>3,29; 67,76</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>11,41</t>
+          <t>11,36</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,31</t>
+          <t>11,21</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>60,28%</t>
+          <t>60,05%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>50,86%</t>
+          <t>65,65%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,53; 16,11</t>
+          <t>5,57; 16,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,65; 14,98</t>
+          <t>5,17; 16,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,33; 94,75</t>
+          <t>25,22; 101,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,5; 104,41</t>
+          <t>24,49; 119,76</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,82</t>
+          <t>13,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>48,59%</t>
+          <t>48,61%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>101,79%</t>
+          <t>109,33%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 17,71</t>
+          <t>-0,87; 17,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,1; 20,61</t>
+          <t>3,22; 22,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 146,36</t>
+          <t>-4,93; 137,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>14,26; 274,55</t>
+          <t>15,6; 297,81</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,81</t>
+          <t>10,8</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,23</t>
+          <t>9,1</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>55,93%</t>
+          <t>55,99%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>45,46%</t>
+          <t>50,99%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,66; 13,81</t>
+          <t>7,45; 13,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,47; 11,94</t>
+          <t>4,94; 12,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>35,56; 78,87</t>
+          <t>35,44; 80,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,46; 75,74</t>
+          <t>23,97; 78,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P20_3_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P20_3_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>10,83</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>6,37</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>53,84%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>31,89%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>10.81947243930841</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>7.06104378595076</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.5351487725475198</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.3635479356225243</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>6,18; 15,46</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,8; 11,33</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>25,88; 89,34</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>3,29; 67,76</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>5.692245567985998</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>1.763473094883341</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>0.2343487984024105</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>0.07603403165888854</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15.46424248660615</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>12.17472936768635</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.8654081860439542</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.739090697455584</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>11,36</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>11,21</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>60,05%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>65,65%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>5,57; 16,51</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>5,17; 16,54</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>25,22; 101,88</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>24,49; 119,76</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>11.40382126568764</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>10.00601040566793</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.6025549858004345</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.572180918098217</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>8,38</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>13,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>48,61%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>109,33%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>5.60069596810026</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>4.062906861358123</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.240082681784785</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>0.1884504310422297</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-0,87; 17,05</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>3,22; 22,34</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,93; 137,57</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>15,6; 297,81</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>16.60328397841613</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>15.74570323929284</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>1.013732796290581</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>1.107746897423317</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,57 +716,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>10,8</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>9,1</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>55,99%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>50,99%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>8.384634690660569</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>12.26971856349791</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.486072272088983</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>1.108659348230541</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>7,45; 13,98</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>4,94; 12,54</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>35,44; 80,22</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>23,97; 78,76</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.869039130052213</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>3.893268362198969</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.04926420958395555</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>0.1370150721875945</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>17.04649632031864</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>21.59613405953793</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>1.37565402454745</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>3.163512636807432</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>10.81123522442658</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>8.873090787609847</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.5592229728878554</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.5027795510106327</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>7.440313954828383</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>5.08304842931433</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.3569155564081831</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>0.2490598958568651</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>14.34953653358342</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>12.44495187889993</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.8268305215346125</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.7991042027119057</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -817,13 +842,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
